--- a/StoreManagement.Website/Resource/ExportedTemplate/Orders.xlsx
+++ b/StoreManagement.Website/Resource/ExportedTemplate/Orders.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:H1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
